--- a/Console_Data.xlsx
+++ b/Console_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saintgobain-my.sharepoint.com/personal/lucas_galanti_saint-gobain_com/Documents/Pessoal/GitHub/Tableau/Videogame Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f848bebf1060a7d/Data/Tableau/Videogame Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{451CBA69-B92F-4CF4-8323-A40649A82CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58829DAF-C414-48C5-8914-B1A159FB15F9}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{451CBA69-B92F-4CF4-8323-A40649A82CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872E1B19-906F-4008-A854-9986A4A2A09E}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="900" windowWidth="27450" windowHeight="15300" xr2:uid="{3062AF32-E7D4-4DD1-AF16-E93D6359333B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3062AF32-E7D4-4DD1-AF16-E93D6359333B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Despite being overshadowed by competitors like the PlayStation 2, the GameCube featured a robust library of exclusive titles and introduced popular franchises such as Animal Crossing and Super Smash Bros. Melee.</t>
   </si>
   <si>
-    <t>Xbox Series X/S</t>
-  </si>
-  <si>
     <t>Released alongside the PlayStation 5 in late 2020, the Xbox Series X and its digital-only counterpart, the Series S, represent Microsoft's commitment to next-gen gaming. Offering powerful hardware, features like Quick Resume and Smart Delivery, and the Xbox Game Pass subscription service, the Series X/S aims to deliver high-quality gaming experiences and accessibility to players worldwide.</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Released in 1994, the Sega Saturn faced challenges in the shadow of the PlayStation's dominance. Despite boasting impressive hardware and a strong library of arcade ports, including Sega's own Virtua Fighter series, the Saturn struggled to gain traction outside of Japan, ultimately leading to its discontinuation in most markets.</t>
   </si>
   <si>
-    <t>Dreamcast</t>
-  </si>
-  <si>
     <t>Super Nintendo</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>Generation</t>
   </si>
   <si>
-    <t>Mega Drive</t>
-  </si>
-  <si>
     <t>Atari 5200/7800</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>Magnavox</t>
   </si>
   <si>
-    <t>Mattel Intellivision</t>
-  </si>
-  <si>
     <t>Mattel</t>
   </si>
   <si>
@@ -385,6 +373,18 @@
   </si>
   <si>
     <t>https://s12.gifyu.com/images/SVLO3.gif</t>
+  </si>
+  <si>
+    <t>Sega Genesis</t>
+  </si>
+  <si>
+    <t>Sega Dreamcast</t>
+  </si>
+  <si>
+    <t>Intellivision</t>
+  </si>
+  <si>
+    <t>Xbox Series</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86DEBAB2-0410-40CC-9F52-681CE7D5A189}" name="Tabela1" displayName="Tabela1" ref="A1:K27" totalsRowShown="0">
   <autoFilter ref="A1:K27" xr:uid="{86DEBAB2-0410-40CC-9F52-681CE7D5A189}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
     <sortCondition ref="F1:F27"/>
   </sortState>
   <tableColumns count="11">
@@ -513,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -659,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -812,26 +812,26 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="4" width="14.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,16 +842,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -863,187 +863,187 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="I2" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="I3" s="1">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1052,10 +1052,10 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1">
         <v>1982</v>
@@ -1070,15 +1070,15 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1">
         <v>1983</v>
@@ -1108,12 +1108,12 @@
         <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1122,10 +1122,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1">
         <v>1986</v>
@@ -1140,15 +1140,15 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1157,10 +1157,10 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1">
         <v>1988</v>
@@ -1178,12 +1178,12 @@
         <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1192,10 +1192,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1">
         <v>1990</v>
@@ -1213,10 +1213,10 @@
         <v>28</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1227,10 +1227,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1">
         <v>1994</v>
@@ -1248,12 +1248,12 @@
         <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1262,10 +1262,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1">
         <v>1994</v>
@@ -1280,13 +1280,13 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1297,10 +1297,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1">
         <v>1996</v>
@@ -1318,12 +1318,12 @@
         <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -1332,10 +1332,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1">
         <v>1998</v>
@@ -1350,13 +1350,13 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1367,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1">
         <v>2000</v>
@@ -1388,24 +1388,24 @@
         <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1">
         <v>2001</v>
@@ -1414,33 +1414,33 @@
         <v>6</v>
       </c>
       <c r="H17" s="1">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I17" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1">
         <v>2001</v>
@@ -1449,19 +1449,19 @@
         <v>6</v>
       </c>
       <c r="H18" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="I18" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1472,10 +1472,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1">
         <v>2005</v>
@@ -1493,10 +1493,10 @@
         <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1507,10 +1507,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1">
         <v>2006</v>
@@ -1528,10 +1528,10 @@
         <v>21</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1542,10 +1542,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F21" s="1">
         <v>2006</v>
@@ -1563,12 +1563,12 @@
         <v>19</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -1577,10 +1577,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
         <v>2012</v>
@@ -1595,27 +1595,27 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1">
         <v>2013</v>
@@ -1623,34 +1623,34 @@
       <c r="G23" s="1">
         <v>8</v>
       </c>
-      <c r="H23" s="1">
-        <v>2020</v>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I23" s="1">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1">
         <v>2013</v>
@@ -1658,20 +1658,20 @@
       <c r="G24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>54</v>
+      <c r="H24" s="1">
+        <v>2020</v>
       </c>
       <c r="I24" s="1">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1682,10 +1682,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1">
         <v>2017</v>
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I25" s="1">
         <v>138</v>
@@ -1703,24 +1703,24 @@
         <v>13</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1">
         <v>2020</v>
@@ -1729,33 +1729,33 @@
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I26" s="1">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1">
         <v>2020</v>
@@ -1764,16 +1764,16 @@
         <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I27" s="1">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
